--- a/GitHubでソース管理.xlsx
+++ b/GitHubでソース管理.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Git追加" sheetId="1" r:id="rId1"/>
-    <sheet name="Gitへコミット" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -660,7 +659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="R190" sqref="R190"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -715,19 +716,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>